--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value260.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value260.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7883114034001617</v>
+        <v>2.131385087966919</v>
       </c>
       <c r="B1">
-        <v>0.9423231828261387</v>
+        <v>2.638291835784912</v>
       </c>
       <c r="C1">
-        <v>1.248310888352328</v>
+        <v>2.757874250411987</v>
       </c>
       <c r="D1">
-        <v>2.774304600449792</v>
+        <v>2.984084129333496</v>
       </c>
       <c r="E1">
-        <v>3.437175560625398</v>
+        <v>0.7646491527557373</v>
       </c>
     </row>
   </sheetData>
